--- a/seleniumpro/excel data/students names.xlsx
+++ b/seleniumpro/excel data/students names.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>username</t>
   </si>
@@ -60,45 +60,6 @@
     <t> Admin6</t>
   </si>
   <si>
-    <t>user name</t>
-  </si>
-  <si>
-    <t>suresh</t>
-  </si>
-  <si>
-    <t>sjakj</t>
-  </si>
-  <si>
-    <t>gjhkgdjk</t>
-  </si>
-  <si>
-    <t>sadvjks</t>
-  </si>
-  <si>
-    <t>cjkjh</t>
-  </si>
-  <si>
-    <t>jipn</t>
-  </si>
-  <si>
-    <t>hkl</t>
-  </si>
-  <si>
-    <t>appy</t>
-  </si>
-  <si>
-    <t>feez</t>
-  </si>
-  <si>
-    <t>gouihl</t>
-  </si>
-  <si>
-    <t>saikrishna</t>
-  </si>
-  <si>
-    <t>sbi</t>
-  </si>
-  <si>
     <t> Admin7</t>
   </si>
   <si>
@@ -109,13 +70,313 @@
   </si>
   <si>
     <t>semyqag</t>
+  </si>
+  <si>
+    <t>mngr</t>
+  </si>
+  <si>
+    <t>semy</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>saik@005</t>
+  </si>
+  <si>
+    <t>saik@006</t>
+  </si>
+  <si>
+    <t>saik@007</t>
+  </si>
+  <si>
+    <t>saik@008</t>
+  </si>
+  <si>
+    <t>saik@009</t>
+  </si>
+  <si>
+    <t>saik@010</t>
+  </si>
+  <si>
+    <t>saik@011</t>
+  </si>
+  <si>
+    <t>E mail</t>
+  </si>
+  <si>
+    <t>Phone numbers</t>
+  </si>
+  <si>
+    <t>kphb road no 3 hyderabad 500072</t>
+  </si>
+  <si>
+    <t>kphb road no 3 hyderabad 500076</t>
+  </si>
+  <si>
+    <t>kphb road no 3 hyderabad 500083</t>
+  </si>
+  <si>
+    <t>Koushik 9</t>
+  </si>
+  <si>
+    <t>Koushik 10</t>
+  </si>
+  <si>
+    <t>Koushik 11</t>
+  </si>
+  <si>
+    <t>koushik1</t>
+  </si>
+  <si>
+    <t>koushik2</t>
+  </si>
+  <si>
+    <t>saikrishna9</t>
+  </si>
+  <si>
+    <t>saikrishna10</t>
+  </si>
+  <si>
+    <t>saikrishna11</t>
+  </si>
+  <si>
+    <t>sai</t>
+  </si>
+  <si>
+    <t>krishna</t>
+  </si>
+  <si>
+    <t>don5324@gmail.com</t>
+  </si>
+  <si>
+    <t>TOM789@gmail.com</t>
+  </si>
+  <si>
+    <t>DON53267@gmail.com</t>
+  </si>
+  <si>
+    <t>saikrishna123@gmail.com</t>
+  </si>
+  <si>
+    <t>nitish1</t>
+  </si>
+  <si>
+    <t>nitish2</t>
+  </si>
+  <si>
+    <t>karthik1</t>
+  </si>
+  <si>
+    <t>karthik2</t>
+  </si>
+  <si>
+    <t>naveen1</t>
+  </si>
+  <si>
+    <t>naveen2</t>
+  </si>
+  <si>
+    <t>suji1</t>
+  </si>
+  <si>
+    <t>suji2</t>
+  </si>
+  <si>
+    <t>DON1</t>
+  </si>
+  <si>
+    <t>DON2</t>
+  </si>
+  <si>
+    <t>banjara hills road no 36 hyderabad 500081</t>
+  </si>
+  <si>
+    <t>hitech city madhapur hyderabad  500082</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>confirm Password</t>
+  </si>
+  <si>
+    <t>saikrishna007</t>
+  </si>
+  <si>
+    <t>koushi100</t>
+  </si>
+  <si>
+    <t>saikrishna008</t>
+  </si>
+  <si>
+    <t>saikrishna009</t>
+  </si>
+  <si>
+    <t>saikrishna010</t>
+  </si>
+  <si>
+    <t>saikrishna011</t>
+  </si>
+  <si>
+    <t>saikrishna012</t>
+  </si>
+  <si>
+    <t>koushi101</t>
+  </si>
+  <si>
+    <t>koushi102</t>
+  </si>
+  <si>
+    <t>koushi103</t>
+  </si>
+  <si>
+    <t>koushi104</t>
+  </si>
+  <si>
+    <t>koushi105</t>
+  </si>
+  <si>
+    <t>DON1235</t>
+  </si>
+  <si>
+    <t>TOM6789</t>
+  </si>
+  <si>
+    <t>DON1236</t>
+  </si>
+  <si>
+    <t>DON1237</t>
+  </si>
+  <si>
+    <t>DON1238</t>
+  </si>
+  <si>
+    <t>DON1239</t>
+  </si>
+  <si>
+    <t>TOM6790</t>
+  </si>
+  <si>
+    <t>TOM6791</t>
+  </si>
+  <si>
+    <t>TOM6792</t>
+  </si>
+  <si>
+    <t>TOM6793</t>
+  </si>
+  <si>
+    <t>DON3</t>
+  </si>
+  <si>
+    <t>Clark Dr.San Francisco, CA 94109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> W. Birch Hill Rd.Fontana, CA 92335</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> W. Birch Hill Rd.Fontana, CA 92336</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South West Ave.New York, NY 10002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South West Ave.New York, NY 10003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South West Ave.New York, NY 10004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South West Ave.New York, NY 10005</t>
+  </si>
+  <si>
+    <t>E-MAIL</t>
+  </si>
+  <si>
+    <t>Create Password</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>FULL NAME</t>
+  </si>
+  <si>
+    <t>sai2581</t>
+  </si>
+  <si>
+    <t>sai111@gmail.com</t>
+  </si>
+  <si>
+    <t>koushik2580</t>
+  </si>
+  <si>
+    <t>DON001</t>
+  </si>
+  <si>
+    <t>DON002</t>
+  </si>
+  <si>
+    <t>DON003</t>
+  </si>
+  <si>
+    <t>USERNAME1</t>
+  </si>
+  <si>
+    <t>USERNAME2</t>
+  </si>
+  <si>
+    <t>USERNAME3</t>
+  </si>
+  <si>
+    <t>USERNAME4</t>
+  </si>
+  <si>
+    <t>USERNAME5</t>
+  </si>
+  <si>
+    <t>krishna23@gmail.com</t>
+  </si>
+  <si>
+    <t>TOM007</t>
+  </si>
+  <si>
+    <t>USERNAME6</t>
+  </si>
+  <si>
+    <t>TOM008</t>
+  </si>
+  <si>
+    <t>TOM009</t>
+  </si>
+  <si>
+    <t>TOM010</t>
+  </si>
+  <si>
+    <t>USERNAME7</t>
+  </si>
+  <si>
+    <t>USERNAME8</t>
+  </si>
+  <si>
+    <t>USERNAME9</t>
+  </si>
+  <si>
+    <t>TOM011</t>
+  </si>
+  <si>
+    <t>USERNAME10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +391,109 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,18 +505,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDEC612"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -457,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -476,10 +860,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,14 +916,19 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -549,93 +938,491 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9988342657</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9988342657</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9988342657</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9988342657</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>123456789</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D6" s="5">
+        <v>9988342657</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9988342657</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9988342657</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2">
-        <v>164886</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>123456789</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D9" s="5">
+        <v>9988342657</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
+      <c r="D10" s="5">
+        <v>9988342657</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5">
+        <v>9988342657</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5">
+        <v>9988342657</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3:C4" r:id="rId2" display="kotte@1234"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3:A6" r:id="rId2" display="sai111@gmail.com"/>
+    <hyperlink ref="A7" r:id="rId3"/>
+    <hyperlink ref="A8:A10" r:id="rId4" display="krishna23@gmail.com"/>
+    <hyperlink ref="A11" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>